--- a/Excel2MaiMLProtocol/INPUT/test/example3.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/test/example3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2DocandProtocolofMaiML/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA684FF-AA53-8342-A21A-0EC4FD9EF5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AD2EA6-84E1-ED42-BAC3-BE5DF87420D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="138">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -2689,7 +2689,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3144,10 +3144,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -3159,12 +3159,12 @@
     <col min="8" max="9" width="20.1640625" style="50" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="50" customWidth="1"/>
     <col min="11" max="11" width="38.33203125" style="51" customWidth="1"/>
-    <col min="12" max="13" width="25.1640625" style="50"/>
-    <col min="14" max="14" width="5.83203125" style="49" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="49"/>
+    <col min="12" max="12" width="25.1640625" style="50"/>
+    <col min="13" max="13" width="5.83203125" style="49" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -3199,13 +3199,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>67</v>
       </c>
@@ -3226,9 +3223,8 @@
       <c r="J2" s="57"/>
       <c r="K2" s="59"/>
       <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
       <c r="A3" s="56" t="s">
         <v>67</v>
       </c>
@@ -3253,9 +3249,8 @@
         <v>81</v>
       </c>
       <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="56" t="s">
         <v>67</v>
       </c>
@@ -3280,9 +3275,8 @@
         <v>80</v>
       </c>
       <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>68</v>
       </c>
@@ -3303,9 +3297,8 @@
       <c r="J5" s="57"/>
       <c r="K5" s="59"/>
       <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="56" t="s">
         <v>68</v>
       </c>
@@ -3328,9 +3321,8 @@
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="56" t="s">
         <v>68</v>
       </c>
@@ -3351,9 +3343,8 @@
       <c r="J7" s="57"/>
       <c r="K7" s="59"/>
       <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>68</v>
       </c>
@@ -3376,9 +3367,8 @@
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-    </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>68</v>
       </c>
@@ -3401,9 +3391,8 @@
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-    </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>68</v>
       </c>
@@ -3428,9 +3417,8 @@
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-    </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>68</v>
       </c>
@@ -3451,9 +3439,8 @@
       <c r="J11" s="57"/>
       <c r="K11" s="59"/>
       <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="56" t="s">
         <v>68</v>
       </c>
@@ -3476,9 +3463,8 @@
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-    </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>68</v>
       </c>
@@ -3499,9 +3485,8 @@
       <c r="J13" s="57"/>
       <c r="K13" s="59"/>
       <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-    </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="56" t="s">
         <v>68</v>
       </c>
@@ -3524,9 +3509,8 @@
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-    </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>68</v>
       </c>
@@ -3551,9 +3535,8 @@
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>68</v>
       </c>
@@ -3574,9 +3557,8 @@
       <c r="J16" s="57"/>
       <c r="K16" s="59"/>
       <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>68</v>
       </c>
@@ -3601,9 +3583,8 @@
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="56" t="s">
         <v>68</v>
       </c>
@@ -3628,9 +3609,8 @@
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="56" t="s">
         <v>68</v>
       </c>
@@ -3651,9 +3631,8 @@
       <c r="J19" s="57"/>
       <c r="K19" s="59"/>
       <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1">
       <c r="A20" s="56" t="s">
         <v>68</v>
       </c>
@@ -3678,9 +3657,8 @@
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>68</v>
       </c>
@@ -3701,9 +3679,8 @@
       <c r="J21" s="57"/>
       <c r="K21" s="59"/>
       <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>69</v>
       </c>
@@ -3723,12 +3700,11 @@
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57" t="s">
+      <c r="L22" s="57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24" customHeight="1">
+    <row r="23" spans="1:12" ht="24" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>69</v>
       </c>
@@ -3748,12 +3724,11 @@
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="59"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57" t="s">
+      <c r="L23" s="57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
+    <row r="24" spans="1:12" ht="24" customHeight="1">
       <c r="A24" s="56" t="s">
         <v>69</v>
       </c>
@@ -3775,12 +3750,11 @@
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="59"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57" t="s">
+      <c r="L24" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>69</v>
       </c>
@@ -3802,12 +3776,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="K25" s="59"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57" t="s">
+      <c r="L25" s="57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="24" customHeight="1">
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>69</v>
       </c>
@@ -3829,12 +3802,11 @@
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="59"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57" t="s">
+      <c r="L26" s="57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1">
+    <row r="27" spans="1:12" ht="24" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>69</v>
       </c>
@@ -3858,12 +3830,11 @@
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57" t="s">
+      <c r="L27" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1">
+    <row r="28" spans="1:12" ht="24" customHeight="1">
       <c r="A28" s="56" t="s">
         <v>69</v>
       </c>
@@ -3885,12 +3856,11 @@
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57" t="s">
+      <c r="L28" s="57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1">
+    <row r="29" spans="1:12" ht="24" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>135</v>
       </c>
@@ -3911,9 +3881,8 @@
       <c r="J29" s="57"/>
       <c r="K29" s="59"/>
       <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>135</v>
       </c>
@@ -3938,9 +3907,8 @@
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="31" spans="1:12" ht="24" customHeight="1">
       <c r="A31" s="56" t="s">
         <v>135</v>
       </c>
@@ -3965,9 +3933,8 @@
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>135</v>
       </c>
@@ -3992,9 +3959,8 @@
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="56" t="s">
         <v>135</v>
       </c>
@@ -4017,9 +3983,8 @@
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="34" spans="1:12" ht="24" customHeight="1">
       <c r="A34" s="56" t="s">
         <v>135</v>
       </c>
@@ -4042,9 +4007,8 @@
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-    </row>
-    <row r="35" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="56" t="s">
         <v>135</v>
       </c>
@@ -4067,9 +4031,8 @@
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-    </row>
-    <row r="36" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="36" spans="1:12" ht="24" customHeight="1">
       <c r="A36" s="56" t="s">
         <v>135</v>
       </c>
@@ -4092,7 +4055,6 @@
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/Excel2MaiMLProtocol/INPUT/test/example3.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/test/example3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2DocandProtocolofMaiML/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AD2EA6-84E1-ED42-BAC3-BE5DF87420D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3254D5-AA64-9E4F-8935-13F51C2F6A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3147,7 +3147,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -3928,8 +3928,8 @@
       <c r="G31" s="58"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
-      <c r="J31" s="60" t="s">
-        <v>132</v>
+      <c r="J31" s="55" t="s">
+        <v>100</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="57"/>
@@ -3978,8 +3978,8 @@
       <c r="G33" s="58"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
-      <c r="J33" s="55" t="s">
-        <v>100</v>
+      <c r="J33" s="60" t="s">
+        <v>132</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="57"/>

--- a/Excel2MaiMLProtocol/INPUT/test/example3.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/test/example3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2DocandProtocolofMaiML/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3254D5-AA64-9E4F-8935-13F51C2F6A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29740946-2518-954F-AB5D-C34CC730B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -655,6 +655,10 @@
   </si>
   <si>
     <t>PARENTID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3064,19 +3068,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="2"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3084,54 +3088,59 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3146,7 +3155,7 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
